--- a/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3064,15 +3064,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="54.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="73.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="52.73828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3083,27 +3083,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -725,7 +725,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -766,7 +766,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.classCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.classCode</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1888,7 +1888,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="55108-5"/&gt;
-    &lt;display value="Clinical presentation Document"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2102,7 +2101,7 @@
     <t>Composition.section:sectionMedications.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationstatement)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationstatement)
 </t>
   </si>
   <si>
@@ -2602,7 +2601,7 @@
     <t>Composition.section:sectionResults.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-lab-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pahtology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-radiolology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-cardiolology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-bodyweight-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-bodyheight-observation)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-lab-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pathology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-radiology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-cardiology-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-bodyweight-observation|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-bodyheight-observation)
 </t>
   </si>
   <si>
@@ -3064,15 +3063,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.96484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="52.73828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="75.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="54.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3083,27 +3082,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1441,7 +1441,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -2665,7 +2665,7 @@
     <t>Composition.section:sectionPregnancyHx.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pregnancystatus)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pregnancystatus|http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-expecteddeliverydate)
 </t>
   </si>
   <si>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -474,7 +474,7 @@
     <t>The person/organization who has typed/filled in the form content</t>
   </si>
   <si>
-    <t>Extension to define the information about the person and organization that entered data and the time of the data input</t>
+    <t>Extension to define the information about the person and organization that entered data and the time of the data input. This extension has its origin from CDA and is deprecated.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -878,7 +878,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1178,7 +1178,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1502,13 +1502,13 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1594,7 +1594,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1640,7 +1640,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -3063,15 +3063,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="54.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3082,27 +3082,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3813,7 +3813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>163</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>172</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>177</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>204</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>217</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>240</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>306</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>526</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>532</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>534</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>538</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>544</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>551</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>559</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>564</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>568</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>573</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>577</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>582</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>588</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>594</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>596</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>600</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>604</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>609</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>615</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>616</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>620</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>623</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>626</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>632</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>634</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>638</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>641</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>645</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>651</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>653</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>657</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>660</v>
       </c>
@@ -24923,7 +24923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>664</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>670</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>672</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>676</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>679</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>683</v>
       </c>
@@ -27039,7 +27039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>689</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>691</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>695</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>698</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>702</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>707</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>709</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>713</v>
       </c>
@@ -29514,7 +29514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>716</v>
       </c>
@@ -29867,7 +29867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>720</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" hidden="true">
+    <row r="233">
       <c r="A233" t="s" s="2">
         <v>725</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>727</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>731</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" hidden="true">
+    <row r="240">
       <c r="A240" t="s" s="2">
         <v>734</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>738</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
         <v>743</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" hidden="true">
+    <row r="248">
       <c r="A248" t="s" s="2">
         <v>745</v>
       </c>
@@ -32455,7 +32455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>749</v>
       </c>
@@ -32810,7 +32810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" hidden="true">
+    <row r="254">
       <c r="A254" t="s" s="2">
         <v>752</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>756</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>761</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>763</v>
       </c>
@@ -34103,7 +34103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>767</v>
       </c>
@@ -34458,7 +34458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" hidden="true">
+    <row r="268">
       <c r="A268" t="s" s="2">
         <v>770</v>
       </c>
@@ -34811,7 +34811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>774</v>
       </c>
@@ -35279,7 +35279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>780</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>782</v>
       </c>
@@ -35751,7 +35751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>786</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" hidden="true">
+    <row r="282">
       <c r="A282" t="s" s="2">
         <v>789</v>
       </c>
@@ -36459,7 +36459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" hidden="true">
+    <row r="285">
       <c r="A285" t="s" s="2">
         <v>793</v>
       </c>
@@ -36927,7 +36927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" hidden="true">
+    <row r="289">
       <c r="A289" t="s" s="2">
         <v>799</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" hidden="true">
+    <row r="290">
       <c r="A290" t="s" s="2">
         <v>801</v>
       </c>
@@ -37399,7 +37399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="293" hidden="true">
+    <row r="293">
       <c r="A293" t="s" s="2">
         <v>805</v>
       </c>
@@ -37754,7 +37754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" hidden="true">
+    <row r="296">
       <c r="A296" t="s" s="2">
         <v>808</v>
       </c>
@@ -38107,7 +38107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" hidden="true">
+    <row r="299">
       <c r="A299" t="s" s="2">
         <v>812</v>
       </c>
@@ -38575,7 +38575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" hidden="true">
+    <row r="303">
       <c r="A303" t="s" s="2">
         <v>818</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="304" hidden="true">
+    <row r="304">
       <c r="A304" t="s" s="2">
         <v>820</v>
       </c>
@@ -39047,7 +39047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" hidden="true">
+    <row r="307">
       <c r="A307" t="s" s="2">
         <v>824</v>
       </c>
@@ -39402,7 +39402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" hidden="true">
+    <row r="310">
       <c r="A310" t="s" s="2">
         <v>827</v>
       </c>
@@ -39755,7 +39755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" hidden="true">
+    <row r="313">
       <c r="A313" t="s" s="2">
         <v>831</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" hidden="true">
+    <row r="317">
       <c r="A317" t="s" s="2">
         <v>837</v>
       </c>
@@ -40342,7 +40342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" hidden="true">
+    <row r="318">
       <c r="A318" t="s" s="2">
         <v>839</v>
       </c>
@@ -40695,7 +40695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="321" hidden="true">
+    <row r="321">
       <c r="A321" t="s" s="2">
         <v>843</v>
       </c>
@@ -41050,7 +41050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" hidden="true">
+    <row r="324">
       <c r="A324" t="s" s="2">
         <v>846</v>
       </c>
@@ -41405,12 +41405,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO326">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
